--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H2">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I2">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J2">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N2">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O2">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P2">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q2">
-        <v>15.46100067394742</v>
+        <v>16.530532355625</v>
       </c>
       <c r="R2">
-        <v>15.46100067394742</v>
+        <v>148.774791200625</v>
       </c>
       <c r="S2">
-        <v>0.001851962325219864</v>
+        <v>0.001923494986139666</v>
       </c>
       <c r="T2">
-        <v>0.001851962325219864</v>
+        <v>0.001923494986139667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H3">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I3">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J3">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N3">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P3">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q3">
-        <v>75.70016276950243</v>
+        <v>78.73431894541399</v>
       </c>
       <c r="R3">
-        <v>75.70016276950243</v>
+        <v>708.608870508726</v>
       </c>
       <c r="S3">
-        <v>0.009067579286660521</v>
+        <v>0.009161536027428151</v>
       </c>
       <c r="T3">
-        <v>0.009067579286660521</v>
+        <v>0.009161536027428155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H4">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I4">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J4">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N4">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q4">
-        <v>229.871863434336</v>
+        <v>237.825832066677</v>
       </c>
       <c r="R4">
-        <v>229.871863434336</v>
+        <v>2140.432488600093</v>
       </c>
       <c r="S4">
-        <v>0.02753470099938785</v>
+        <v>0.0276734460641302</v>
       </c>
       <c r="T4">
-        <v>0.02753470099938785</v>
+        <v>0.0276734460641302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H5">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I5">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J5">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N5">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q5">
-        <v>161.9454522830584</v>
+        <v>169.601363706801</v>
       </c>
       <c r="R5">
-        <v>161.9454522830584</v>
+        <v>1526.412273361209</v>
       </c>
       <c r="S5">
-        <v>0.01939828363595449</v>
+        <v>0.01973483767577959</v>
       </c>
       <c r="T5">
-        <v>0.01939828363595449</v>
+        <v>0.01973483767577959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.71569028759221</v>
+        <v>7.925937</v>
       </c>
       <c r="H6">
-        <v>7.71569028759221</v>
+        <v>23.777811</v>
       </c>
       <c r="I6">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573917</v>
       </c>
       <c r="J6">
-        <v>0.07119897886095225</v>
+        <v>0.07297748600573918</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N6">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q6">
-        <v>111.4220899883487</v>
+        <v>124.477091573005</v>
       </c>
       <c r="R6">
-        <v>111.4220899883487</v>
+        <v>1120.293824157045</v>
       </c>
       <c r="S6">
-        <v>0.01334645261372952</v>
+        <v>0.01448417125226156</v>
       </c>
       <c r="T6">
-        <v>0.01334645261372952</v>
+        <v>0.01448417125226157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H7">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I7">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J7">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N7">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O7">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P7">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q7">
-        <v>196.5395847119251</v>
+        <v>204.5923410960417</v>
       </c>
       <c r="R7">
-        <v>196.5395847119251</v>
+        <v>1841.331069864375</v>
       </c>
       <c r="S7">
-        <v>0.0235420665179955</v>
+        <v>0.02380639254893093</v>
       </c>
       <c r="T7">
-        <v>0.0235420665179955</v>
+        <v>0.02380639254893093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H8">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I8">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J8">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N8">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P8">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q8">
-        <v>962.2972579267441</v>
+        <v>974.4658121771442</v>
       </c>
       <c r="R8">
-        <v>962.2972579267441</v>
+        <v>8770.192309594298</v>
       </c>
       <c r="S8">
-        <v>0.1152666832455229</v>
+        <v>0.1133889740247501</v>
       </c>
       <c r="T8">
-        <v>0.1152666832455229</v>
+        <v>0.1133889740247502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H9">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I9">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J9">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N9">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q9">
-        <v>2922.121376818098</v>
+        <v>2943.483168530771</v>
       </c>
       <c r="R9">
-        <v>2922.121376818098</v>
+        <v>26491.34851677694</v>
       </c>
       <c r="S9">
-        <v>0.3500199510828326</v>
+        <v>0.3425041005729529</v>
       </c>
       <c r="T9">
-        <v>0.3500199510828326</v>
+        <v>0.342504100572953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H10">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I10">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J10">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N10">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q10">
-        <v>2058.643719699862</v>
+        <v>2099.093925553357</v>
       </c>
       <c r="R10">
-        <v>2058.643719699862</v>
+        <v>18891.84532998021</v>
       </c>
       <c r="S10">
-        <v>0.246590158705506</v>
+        <v>0.2442508537762973</v>
       </c>
       <c r="T10">
-        <v>0.246590158705506</v>
+        <v>0.2442508537762972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>98.0815276364669</v>
+        <v>98.09641766666668</v>
       </c>
       <c r="H11">
-        <v>98.0815276364669</v>
+        <v>294.289253</v>
       </c>
       <c r="I11">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633545</v>
       </c>
       <c r="J11">
-        <v>0.9050783990213725</v>
+        <v>0.9032156005633546</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N11">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q11">
-        <v>1416.392881409384</v>
+        <v>1540.607345841559</v>
       </c>
       <c r="R11">
-        <v>1416.392881409384</v>
+        <v>13865.46611257403</v>
       </c>
       <c r="S11">
-        <v>0.1696595394695155</v>
+        <v>0.1792652796404232</v>
       </c>
       <c r="T11">
-        <v>0.1696595394695155</v>
+        <v>0.1792652796404232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.57077289587295</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H12">
-        <v>2.57077289587295</v>
+        <v>0.01607</v>
       </c>
       <c r="I12">
-        <v>0.02372262211767526</v>
+        <v>4.93211170747479E-05</v>
       </c>
       <c r="J12">
-        <v>0.02372262211767526</v>
+        <v>4.932111707474791E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N12">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O12">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P12">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q12">
-        <v>5.151414843539676</v>
+        <v>0.01117199791666667</v>
       </c>
       <c r="R12">
-        <v>5.151414843539676</v>
+        <v>0.10054798125</v>
       </c>
       <c r="S12">
-        <v>0.0006170510184304977</v>
+        <v>1.299975192302792E-06</v>
       </c>
       <c r="T12">
-        <v>0.0006170510184304977</v>
+        <v>1.299975192302792E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.57077289587295</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H13">
-        <v>2.57077289587295</v>
+        <v>0.01607</v>
       </c>
       <c r="I13">
-        <v>0.02372262211767526</v>
+        <v>4.93211170747479E-05</v>
       </c>
       <c r="J13">
-        <v>0.02372262211767526</v>
+        <v>4.932111707474791E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N13">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P13">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q13">
-        <v>25.22236111187112</v>
+        <v>0.05321181606888888</v>
       </c>
       <c r="R13">
-        <v>25.22236111187112</v>
+        <v>0.47890634462</v>
       </c>
       <c r="S13">
-        <v>0.00302120564621578</v>
+        <v>6.191734132329103E-06</v>
       </c>
       <c r="T13">
-        <v>0.00302120564621578</v>
+        <v>6.191734132329105E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.57077289587295</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H14">
-        <v>2.57077289587295</v>
+        <v>0.01607</v>
       </c>
       <c r="I14">
-        <v>0.02372262211767526</v>
+        <v>4.93211170747479E-05</v>
       </c>
       <c r="J14">
-        <v>0.02372262211767526</v>
+        <v>4.932111707474791E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N14">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q14">
-        <v>76.59047136600567</v>
+        <v>0.16073225249</v>
       </c>
       <c r="R14">
-        <v>76.59047136600567</v>
+        <v>1.44659027241</v>
       </c>
       <c r="S14">
-        <v>0.009174222964732519</v>
+        <v>1.870282669210266E-05</v>
       </c>
       <c r="T14">
-        <v>0.009174222964732519</v>
+        <v>1.870282669210266E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.57077289587295</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H15">
-        <v>2.57077289587295</v>
+        <v>0.01607</v>
       </c>
       <c r="I15">
-        <v>0.02372262211767526</v>
+        <v>4.93211170747479E-05</v>
       </c>
       <c r="J15">
-        <v>0.02372262211767526</v>
+        <v>4.932111707474791E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N15">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q15">
-        <v>53.95822846967758</v>
+        <v>0.1146234157033333</v>
       </c>
       <c r="R15">
-        <v>53.95822846967758</v>
+        <v>1.03161074133</v>
       </c>
       <c r="S15">
-        <v>0.00646326899330867</v>
+        <v>1.333759619208758E-05</v>
       </c>
       <c r="T15">
-        <v>0.00646326899330867</v>
+        <v>1.333759619208757E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.005356666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.01607</v>
+      </c>
+      <c r="I16">
+        <v>4.93211170747479E-05</v>
+      </c>
+      <c r="J16">
+        <v>4.932111707474791E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N16">
+        <v>47.115095</v>
+      </c>
+      <c r="O16">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P16">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q16">
+        <v>0.08412661962777777</v>
+      </c>
+      <c r="R16">
+        <v>0.75713957665</v>
+      </c>
+      <c r="S16">
+        <v>9.788984865925772E-06</v>
+      </c>
+      <c r="T16">
+        <v>9.788984865925773E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.015872</v>
+      </c>
+      <c r="I17">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J17">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.085625</v>
+      </c>
+      <c r="N17">
+        <v>6.256875</v>
+      </c>
+      <c r="O17">
+        <v>0.02635737528678909</v>
+      </c>
+      <c r="P17">
+        <v>0.0263573752867891</v>
+      </c>
+      <c r="Q17">
+        <v>0.01103434666666667</v>
+      </c>
+      <c r="R17">
+        <v>0.09930912</v>
+      </c>
+      <c r="S17">
+        <v>1.283958074189789E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.28395807418979E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.015872</v>
+      </c>
+      <c r="I18">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J18">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.933755333333332</v>
+      </c>
+      <c r="N18">
+        <v>29.801266</v>
+      </c>
+      <c r="O18">
+        <v>0.1255392111850449</v>
+      </c>
+      <c r="P18">
+        <v>0.125539211185045</v>
+      </c>
+      <c r="Q18">
+        <v>0.05255618821688889</v>
+      </c>
+      <c r="R18">
+        <v>0.473005693952</v>
+      </c>
+      <c r="S18">
+        <v>6.115445186579185E-06</v>
+      </c>
+      <c r="T18">
+        <v>6.115445186579189E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.015872</v>
+      </c>
+      <c r="I19">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J19">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.00602099999999</v>
+      </c>
+      <c r="N19">
+        <v>90.01806299999998</v>
+      </c>
+      <c r="O19">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="P19">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="Q19">
+        <v>0.158751855104</v>
+      </c>
+      <c r="R19">
+        <v>1.428766695936</v>
+      </c>
+      <c r="S19">
+        <v>1.847238738376188E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.847238738376188E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.015872</v>
+      </c>
+      <c r="I20">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J20">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.398273</v>
+      </c>
+      <c r="N20">
+        <v>64.194819</v>
+      </c>
+      <c r="O20">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="P20">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="Q20">
+        <v>0.1132111296853333</v>
+      </c>
+      <c r="R20">
+        <v>1.018900167168</v>
+      </c>
+      <c r="S20">
+        <v>1.317326239955283E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.317326239955283E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.015872</v>
+      </c>
+      <c r="I21">
+        <v>4.871342689548218E-05</v>
+      </c>
+      <c r="J21">
+        <v>4.871342689548219E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N21">
+        <v>47.115095</v>
+      </c>
+      <c r="O21">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P21">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q21">
+        <v>0.08309008753777777</v>
+      </c>
+      <c r="R21">
+        <v>0.74781078784</v>
+      </c>
+      <c r="S21">
+        <v>9.668373851398496E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.668373851398499E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H22">
+        <v>7.72492</v>
+      </c>
+      <c r="I22">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J22">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.085625</v>
+      </c>
+      <c r="N22">
+        <v>6.256875</v>
+      </c>
+      <c r="O22">
+        <v>0.02635737528678909</v>
+      </c>
+      <c r="P22">
+        <v>0.0263573752867891</v>
+      </c>
+      <c r="Q22">
+        <v>5.370428758333333</v>
+      </c>
+      <c r="R22">
+        <v>48.333858825</v>
+      </c>
+      <c r="S22">
+        <v>0.0006249038184520028</v>
+      </c>
+      <c r="T22">
+        <v>0.0006249038184520029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H23">
+        <v>7.72492</v>
+      </c>
+      <c r="I23">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J23">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.933755333333332</v>
+      </c>
+      <c r="N23">
+        <v>29.801266</v>
+      </c>
+      <c r="O23">
+        <v>0.1255392111850449</v>
+      </c>
+      <c r="P23">
+        <v>0.125539211185045</v>
+      </c>
+      <c r="Q23">
+        <v>25.57915508319111</v>
+      </c>
+      <c r="R23">
+        <v>230.21239574872</v>
+      </c>
+      <c r="S23">
+        <v>0.002976393953547712</v>
+      </c>
+      <c r="T23">
+        <v>0.002976393953547713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.57077289587295</v>
-      </c>
-      <c r="H16">
-        <v>2.57077289587295</v>
-      </c>
-      <c r="I16">
-        <v>0.02372262211767526</v>
-      </c>
-      <c r="J16">
-        <v>0.02372262211767526</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.4409749270949</v>
-      </c>
-      <c r="N16">
-        <v>14.4409749270949</v>
-      </c>
-      <c r="O16">
-        <v>0.1874528655782328</v>
-      </c>
-      <c r="P16">
-        <v>0.1874528655782328</v>
-      </c>
-      <c r="Q16">
-        <v>37.12446693255642</v>
-      </c>
-      <c r="R16">
-        <v>37.12446693255642</v>
-      </c>
-      <c r="S16">
-        <v>0.004446873494987792</v>
-      </c>
-      <c r="T16">
-        <v>0.004446873494987792</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H24">
+        <v>7.72492</v>
+      </c>
+      <c r="I24">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J24">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.00602099999999</v>
+      </c>
+      <c r="N24">
+        <v>90.01806299999998</v>
+      </c>
+      <c r="O24">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="P24">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="Q24">
+        <v>77.26470391443998</v>
+      </c>
+      <c r="R24">
+        <v>695.3823352299598</v>
+      </c>
+      <c r="S24">
+        <v>0.008990531423170982</v>
+      </c>
+      <c r="T24">
+        <v>0.008990531423170984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H25">
+        <v>7.72492</v>
+      </c>
+      <c r="I25">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J25">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.398273</v>
+      </c>
+      <c r="N25">
+        <v>64.194819</v>
+      </c>
+      <c r="O25">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="P25">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="Q25">
+        <v>55.09998235438667</v>
+      </c>
+      <c r="R25">
+        <v>495.89984118948</v>
+      </c>
+      <c r="S25">
+        <v>0.006411441417310587</v>
+      </c>
+      <c r="T25">
+        <v>0.006411441417310587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.574973333333333</v>
+      </c>
+      <c r="H26">
+        <v>7.72492</v>
+      </c>
+      <c r="I26">
+        <v>0.023708878886936</v>
+      </c>
+      <c r="J26">
+        <v>0.02370887888693601</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N26">
+        <v>47.115095</v>
+      </c>
+      <c r="O26">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P26">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q26">
+        <v>40.44003774082222</v>
+      </c>
+      <c r="R26">
+        <v>363.9603396674</v>
+      </c>
+      <c r="S26">
+        <v>0.004705608274454718</v>
+      </c>
+      <c r="T26">
+        <v>0.004705608274454719</v>
       </c>
     </row>
   </sheetData>
